--- a/Components.xlsx
+++ b/Components.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\source\repos\Warehouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4798C4E-030F-46C1-B958-E9334C0CA9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BFB323-B3F6-4D28-AB3B-A7263CD16F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1678,7 +1678,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X1" sqref="X1"/>
+      <selection pane="bottomLeft" activeCell="U162" sqref="U162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10200,23 +10200,33 @@
       <c r="D159" s="25">
         <v>0</v>
       </c>
-      <c r="E159" s="16"/>
+      <c r="E159" s="16">
+        <v>1</v>
+      </c>
       <c r="F159" s="16"/>
       <c r="G159" s="16"/>
       <c r="H159" s="5"/>
-      <c r="I159" s="15"/>
+      <c r="I159" s="15">
+        <v>1</v>
+      </c>
       <c r="J159" s="15"/>
       <c r="K159" s="15"/>
       <c r="L159" s="6"/>
-      <c r="M159" s="17"/>
+      <c r="M159" s="17">
+        <v>1</v>
+      </c>
       <c r="N159" s="17"/>
       <c r="O159" s="17"/>
       <c r="P159" s="17"/>
-      <c r="Q159" s="28"/>
+      <c r="Q159" s="28">
+        <v>1</v>
+      </c>
       <c r="R159" s="28"/>
       <c r="S159" s="28"/>
       <c r="T159" s="28"/>
-      <c r="U159" s="30"/>
+      <c r="U159" s="30">
+        <v>1</v>
+      </c>
       <c r="V159" s="30"/>
       <c r="W159" s="30"/>
       <c r="X159" s="30"/>
@@ -10235,23 +10245,33 @@
         <v>0</v>
       </c>
       <c r="E160" s="16"/>
-      <c r="F160" s="16"/>
+      <c r="F160" s="16">
+        <v>1</v>
+      </c>
       <c r="G160" s="16"/>
       <c r="H160" s="5"/>
       <c r="I160" s="15"/>
-      <c r="J160" s="15"/>
+      <c r="J160" s="15">
+        <v>1</v>
+      </c>
       <c r="K160" s="15"/>
       <c r="L160" s="6"/>
       <c r="M160" s="17"/>
-      <c r="N160" s="17"/>
+      <c r="N160" s="17">
+        <v>1</v>
+      </c>
       <c r="O160" s="17"/>
       <c r="P160" s="17"/>
       <c r="Q160" s="28"/>
-      <c r="R160" s="28"/>
+      <c r="R160" s="28">
+        <v>1</v>
+      </c>
       <c r="S160" s="28"/>
       <c r="T160" s="28"/>
       <c r="U160" s="30"/>
-      <c r="V160" s="30"/>
+      <c r="V160" s="30">
+        <v>1</v>
+      </c>
       <c r="W160" s="30"/>
       <c r="X160" s="30"/>
     </row>
@@ -10268,60 +10288,40 @@
       <c r="D161" s="20">
         <v>0</v>
       </c>
-      <c r="E161" s="16">
-        <v>1</v>
-      </c>
-      <c r="F161" s="16">
-        <v>1</v>
-      </c>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
       <c r="G161" s="16">
         <v>1</v>
       </c>
       <c r="H161" s="16">
         <v>1</v>
       </c>
-      <c r="I161" s="15">
-        <v>1</v>
-      </c>
-      <c r="J161" s="15">
-        <v>1</v>
-      </c>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
       <c r="K161" s="15">
         <v>1</v>
       </c>
       <c r="L161" s="15">
         <v>1</v>
       </c>
-      <c r="M161" s="17">
-        <v>1</v>
-      </c>
-      <c r="N161" s="17">
-        <v>1</v>
-      </c>
+      <c r="M161" s="17"/>
+      <c r="N161" s="17"/>
       <c r="O161" s="17">
         <v>1</v>
       </c>
       <c r="P161" s="17">
         <v>1</v>
       </c>
-      <c r="Q161" s="28">
-        <v>1</v>
-      </c>
-      <c r="R161" s="28">
-        <v>1</v>
-      </c>
+      <c r="Q161" s="28"/>
+      <c r="R161" s="28"/>
       <c r="S161" s="28">
         <v>1</v>
       </c>
       <c r="T161" s="28">
         <v>1</v>
       </c>
-      <c r="U161" s="30">
-        <v>1</v>
-      </c>
-      <c r="V161" s="30">
-        <v>1</v>
-      </c>
+      <c r="U161" s="30"/>
+      <c r="V161" s="30"/>
       <c r="W161" s="30">
         <v>1</v>
       </c>

--- a/Components.xlsx
+++ b/Components.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\source\repos\WarehouseFiller\WarehouseFiller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\source\repos\Warehouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D254EE-8B68-4D24-AFBF-EFD8774E23B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7F83B2-4200-45F2-B08C-D6D2AAF4D667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,15 +710,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -910,7 +901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
         <bgColor theme="3" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
@@ -1246,9 +1237,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1260,17 +1248,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1509,44 +1500,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" customWidth="1"/>
-    <col min="6" max="7" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" customWidth="1"/>
-    <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" customWidth="1"/>
-    <col min="21" max="21" width="5.28515625" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" customWidth="1"/>
-    <col min="23" max="23" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="23" width="5.7109375" customWidth="1"/>
     <col min="24" max="24" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="98" t="s">
         <v>163</v>
       </c>
       <c r="D1" s="45" t="s">
@@ -1640,7 +1613,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="93" t="s">
         <v>115</v>
       </c>
       <c r="C3" s="78">
@@ -2097,7 +2070,7 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="92" t="s">
         <v>132</v>
       </c>
       <c r="C15" s="58">
@@ -2130,7 +2103,7 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="92" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="58">
@@ -2163,7 +2136,7 @@
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="92" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="58">
@@ -2196,7 +2169,7 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="92" t="s">
         <v>135</v>
       </c>
       <c r="C18" s="58">
@@ -2229,7 +2202,7 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="92" t="s">
         <v>136</v>
       </c>
       <c r="C19" s="58">
@@ -2271,13 +2244,13 @@
       </c>
       <c r="V19" s="71"/>
       <c r="W19" s="71"/>
-      <c r="X19" s="88"/>
+      <c r="X19" s="87"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="92" t="s">
         <v>137</v>
       </c>
       <c r="C20" s="58">
@@ -2316,7 +2289,7 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="86" t="s">
         <v>138</v>
       </c>
       <c r="C21" s="58">
@@ -2355,7 +2328,7 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="86" t="s">
         <v>146</v>
       </c>
       <c r="C22" s="58">
@@ -2460,7 +2433,7 @@
       <c r="U23" s="22"/>
       <c r="V23" s="22"/>
       <c r="W23" s="22"/>
-      <c r="X23" s="88"/>
+      <c r="X23" s="87"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2508,7 +2481,7 @@
       <c r="W24" s="22">
         <v>1</v>
       </c>
-      <c r="X24" s="88"/>
+      <c r="X24" s="87"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2556,7 +2529,7 @@
       <c r="W25" s="55">
         <v>1</v>
       </c>
-      <c r="X25" s="88"/>
+      <c r="X25" s="87"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2612,7 +2585,7 @@
       <c r="U26" s="22"/>
       <c r="V26" s="22"/>
       <c r="W26" s="22"/>
-      <c r="X26" s="88"/>
+      <c r="X26" s="87"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2660,13 +2633,13 @@
       <c r="W27" s="22">
         <v>1</v>
       </c>
-      <c r="X27" s="88"/>
+      <c r="X27" s="87"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="86" t="s">
         <v>129</v>
       </c>
       <c r="C28" s="58">
@@ -2732,13 +2705,13 @@
       <c r="W28" s="22">
         <v>3</v>
       </c>
-      <c r="X28" s="88"/>
+      <c r="X28" s="87"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="86" t="s">
         <v>130</v>
       </c>
       <c r="C29" s="58">
@@ -2804,13 +2777,13 @@
       <c r="W29" s="22">
         <v>3</v>
       </c>
-      <c r="X29" s="88"/>
+      <c r="X29" s="87"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="86" t="s">
         <v>131</v>
       </c>
       <c r="C30" s="58">
@@ -2876,13 +2849,13 @@
       <c r="W30" s="22">
         <v>3</v>
       </c>
-      <c r="X30" s="88"/>
+      <c r="X30" s="87"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="86" t="s">
         <v>147</v>
       </c>
       <c r="C31" s="58">
@@ -2932,7 +2905,7 @@
       <c r="U31" s="22"/>
       <c r="V31" s="22"/>
       <c r="W31" s="22"/>
-      <c r="X31" s="88"/>
+      <c r="X31" s="87"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -2980,7 +2953,7 @@
       <c r="W32" s="55">
         <v>2</v>
       </c>
-      <c r="X32" s="88"/>
+      <c r="X32" s="87"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
@@ -3076,7 +3049,7 @@
       <c r="W34" s="22">
         <v>1</v>
       </c>
-      <c r="X34" s="88"/>
+      <c r="X34" s="87"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -3108,7 +3081,7 @@
       <c r="U35" s="22"/>
       <c r="V35" s="22"/>
       <c r="W35" s="22"/>
-      <c r="X35" s="88"/>
+      <c r="X35" s="87"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -3180,7 +3153,7 @@
       <c r="W36" s="22">
         <v>3</v>
       </c>
-      <c r="X36" s="88"/>
+      <c r="X36" s="87"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -3252,7 +3225,7 @@
       <c r="W37" s="22">
         <v>3</v>
       </c>
-      <c r="X37" s="88"/>
+      <c r="X37" s="87"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
@@ -3284,7 +3257,7 @@
       <c r="A39">
         <v>34</v>
       </c>
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="95" t="s">
         <v>170</v>
       </c>
       <c r="C39" s="60">
@@ -3350,13 +3323,13 @@
       <c r="W39" s="22">
         <v>420</v>
       </c>
-      <c r="X39" s="88"/>
+      <c r="X39" s="87"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>35</v>
       </c>
-      <c r="B40" s="98" t="s">
+      <c r="B40" s="95" t="s">
         <v>171</v>
       </c>
       <c r="C40" s="60">
@@ -3406,13 +3379,13 @@
       <c r="U40" s="19"/>
       <c r="V40" s="19"/>
       <c r="W40" s="19"/>
-      <c r="X40" s="88"/>
+      <c r="X40" s="87"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>36</v>
       </c>
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="95" t="s">
         <v>172</v>
       </c>
       <c r="C41" s="60">
@@ -3454,7 +3427,7 @@
       <c r="W41" s="19">
         <v>80</v>
       </c>
-      <c r="X41" s="88"/>
+      <c r="X41" s="87"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
@@ -3552,7 +3525,7 @@
       <c r="W43" s="22">
         <v>3</v>
       </c>
-      <c r="X43" s="88"/>
+      <c r="X43" s="87"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -3624,7 +3597,7 @@
       <c r="W44" s="22">
         <v>2</v>
       </c>
-      <c r="X44" s="88"/>
+      <c r="X44" s="87"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -3696,7 +3669,7 @@
       <c r="W45" s="22">
         <v>1</v>
       </c>
-      <c r="X45" s="88"/>
+      <c r="X45" s="87"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -3748,7 +3721,7 @@
       <c r="W46" s="22">
         <v>1</v>
       </c>
-      <c r="X46" s="88"/>
+      <c r="X46" s="87"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -3790,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="W47" s="22"/>
-      <c r="X47" s="88"/>
+      <c r="X47" s="87"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -3832,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="W48" s="22"/>
-      <c r="X48" s="88"/>
+      <c r="X48" s="87"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -3874,7 +3847,7 @@
         <v>2</v>
       </c>
       <c r="W49" s="22"/>
-      <c r="X49" s="88"/>
+      <c r="X49" s="87"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -3916,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="W50" s="22"/>
-      <c r="X50" s="88"/>
+      <c r="X50" s="87"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -3958,7 +3931,7 @@
         <v>2</v>
       </c>
       <c r="W51" s="22"/>
-      <c r="X51" s="88"/>
+      <c r="X51" s="87"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -4000,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="W52" s="22"/>
-      <c r="X52" s="88"/>
+      <c r="X52" s="87"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -4042,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="W53" s="22"/>
-      <c r="X53" s="88"/>
+      <c r="X53" s="87"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -4094,7 +4067,7 @@
       <c r="W54" s="22">
         <v>1</v>
       </c>
-      <c r="X54" s="88"/>
+      <c r="X54" s="87"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -4136,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="W55" s="22"/>
-      <c r="X55" s="88"/>
+      <c r="X55" s="87"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -4178,7 +4151,7 @@
       <c r="U56" s="22"/>
       <c r="V56" s="22"/>
       <c r="W56" s="22"/>
-      <c r="X56" s="88"/>
+      <c r="X56" s="87"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -4230,7 +4203,7 @@
       </c>
       <c r="V57" s="22"/>
       <c r="W57" s="22"/>
-      <c r="X57" s="88"/>
+      <c r="X57" s="87"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -4282,7 +4255,7 @@
       </c>
       <c r="V58" s="22"/>
       <c r="W58" s="22"/>
-      <c r="X58" s="88"/>
+      <c r="X58" s="87"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -4334,7 +4307,7 @@
       </c>
       <c r="V59" s="22"/>
       <c r="W59" s="22"/>
-      <c r="X59" s="88"/>
+      <c r="X59" s="87"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -4386,7 +4359,7 @@
       </c>
       <c r="V60" s="22"/>
       <c r="W60" s="22"/>
-      <c r="X60" s="88"/>
+      <c r="X60" s="87"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -4438,7 +4411,7 @@
       </c>
       <c r="V61" s="22"/>
       <c r="W61" s="22"/>
-      <c r="X61" s="88"/>
+      <c r="X61" s="87"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -4480,7 +4453,7 @@
       <c r="U62" s="22"/>
       <c r="V62" s="22"/>
       <c r="W62" s="22"/>
-      <c r="X62" s="88"/>
+      <c r="X62" s="87"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -4532,7 +4505,7 @@
       </c>
       <c r="V63" s="22"/>
       <c r="W63" s="22"/>
-      <c r="X63" s="88"/>
+      <c r="X63" s="87"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -4584,7 +4557,7 @@
       </c>
       <c r="V64" s="22"/>
       <c r="W64" s="22"/>
-      <c r="X64" s="88"/>
+      <c r="X64" s="87"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -4626,7 +4599,7 @@
       <c r="U65" s="22"/>
       <c r="V65" s="22"/>
       <c r="W65" s="22"/>
-      <c r="X65" s="88"/>
+      <c r="X65" s="87"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -4668,7 +4641,7 @@
       <c r="U66" s="22"/>
       <c r="V66" s="22"/>
       <c r="W66" s="22"/>
-      <c r="X66" s="88"/>
+      <c r="X66" s="87"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -4710,7 +4683,7 @@
       <c r="U67" s="22"/>
       <c r="V67" s="22"/>
       <c r="W67" s="22"/>
-      <c r="X67" s="88"/>
+      <c r="X67" s="87"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -4762,7 +4735,7 @@
       </c>
       <c r="V68" s="22"/>
       <c r="W68" s="22"/>
-      <c r="X68" s="88"/>
+      <c r="X68" s="87"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -4814,7 +4787,7 @@
       </c>
       <c r="V69" s="22"/>
       <c r="W69" s="22"/>
-      <c r="X69" s="88"/>
+      <c r="X69" s="87"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -4866,7 +4839,7 @@
       </c>
       <c r="V70" s="22"/>
       <c r="W70" s="22"/>
-      <c r="X70" s="88"/>
+      <c r="X70" s="87"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -4918,13 +4891,13 @@
       </c>
       <c r="V71" s="22"/>
       <c r="W71" s="22"/>
-      <c r="X71" s="88"/>
+      <c r="X71" s="87"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>66</v>
       </c>
-      <c r="B72" s="90" t="s">
+      <c r="B72" s="89" t="s">
         <v>145</v>
       </c>
       <c r="C72" s="31">
@@ -4986,7 +4959,7 @@
       <c r="W72" s="22">
         <v>4</v>
       </c>
-      <c r="X72" s="88"/>
+      <c r="X72" s="87"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -5022,7 +4995,7 @@
       <c r="U73" s="22"/>
       <c r="V73" s="22"/>
       <c r="W73" s="22"/>
-      <c r="X73" s="88"/>
+      <c r="X73" s="87"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -5074,9 +5047,9 @@
       </c>
       <c r="V74" s="22"/>
       <c r="W74" s="22"/>
-      <c r="X74" s="88"/>
-    </row>
-    <row r="75" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="X74" s="87"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>69</v>
       </c>
@@ -5126,9 +5099,9 @@
       </c>
       <c r="V75" s="22"/>
       <c r="W75" s="22"/>
-      <c r="X75" s="88"/>
-    </row>
-    <row r="76" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="X75" s="87"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>70</v>
       </c>
@@ -5168,7 +5141,7 @@
       <c r="U76" s="22"/>
       <c r="V76" s="22"/>
       <c r="W76" s="22"/>
-      <c r="X76" s="88"/>
+      <c r="X76" s="87"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -5240,7 +5213,7 @@
       <c r="W77" s="22">
         <v>1</v>
       </c>
-      <c r="X77" s="88"/>
+      <c r="X77" s="87"/>
     </row>
     <row r="78" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
@@ -5338,7 +5311,7 @@
       <c r="W79" s="22">
         <v>6</v>
       </c>
-      <c r="X79" s="88"/>
+      <c r="X79" s="87"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -5410,7 +5383,7 @@
       <c r="W80" s="22">
         <v>6</v>
       </c>
-      <c r="X80" s="88"/>
+      <c r="X80" s="87"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -5482,7 +5455,7 @@
       <c r="W81" s="22">
         <v>6</v>
       </c>
-      <c r="X81" s="88"/>
+      <c r="X81" s="87"/>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -5538,13 +5511,13 @@
       <c r="U82" s="22"/>
       <c r="V82" s="22"/>
       <c r="W82" s="22"/>
-      <c r="X82" s="88"/>
+      <c r="X82" s="87"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>76</v>
       </c>
-      <c r="B83" s="91" t="s">
+      <c r="B83" s="90" t="s">
         <v>149</v>
       </c>
       <c r="C83" s="26">
@@ -5586,7 +5559,7 @@
       <c r="W83" s="22">
         <v>2</v>
       </c>
-      <c r="X83" s="88"/>
+      <c r="X83" s="87"/>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -5658,7 +5631,7 @@
       <c r="W84" s="22">
         <v>6</v>
       </c>
-      <c r="X84" s="88"/>
+      <c r="X84" s="87"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -5730,7 +5703,7 @@
       <c r="W85" s="22">
         <v>3</v>
       </c>
-      <c r="X85" s="88"/>
+      <c r="X85" s="87"/>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -5802,7 +5775,7 @@
       <c r="W86" s="22">
         <v>3</v>
       </c>
-      <c r="X86" s="88"/>
+      <c r="X86" s="87"/>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -5862,19 +5835,19 @@
       <c r="S87" s="19">
         <v>3</v>
       </c>
-      <c r="T87" s="86">
-        <v>3</v>
-      </c>
-      <c r="U87" s="86">
-        <v>3</v>
-      </c>
-      <c r="V87" s="86">
-        <v>3</v>
-      </c>
-      <c r="W87" s="86">
-        <v>3</v>
-      </c>
-      <c r="X87" s="88"/>
+      <c r="T87" s="97">
+        <v>3</v>
+      </c>
+      <c r="U87" s="97">
+        <v>3</v>
+      </c>
+      <c r="V87" s="97">
+        <v>3</v>
+      </c>
+      <c r="W87" s="97">
+        <v>3</v>
+      </c>
+      <c r="X87" s="87"/>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -5934,19 +5907,19 @@
       <c r="S88" s="19">
         <v>9</v>
       </c>
-      <c r="T88" s="86">
+      <c r="T88" s="97">
         <v>9</v>
       </c>
-      <c r="U88" s="86">
+      <c r="U88" s="97">
         <v>9</v>
       </c>
-      <c r="V88" s="86">
+      <c r="V88" s="97">
         <v>9</v>
       </c>
-      <c r="W88" s="86">
+      <c r="W88" s="97">
         <v>9</v>
       </c>
-      <c r="X88" s="88"/>
+      <c r="X88" s="87"/>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -6006,19 +5979,19 @@
       <c r="S89" s="19">
         <v>3</v>
       </c>
-      <c r="T89" s="86">
-        <v>3</v>
-      </c>
-      <c r="U89" s="86">
-        <v>3</v>
-      </c>
-      <c r="V89" s="86">
-        <v>3</v>
-      </c>
-      <c r="W89" s="86">
-        <v>3</v>
-      </c>
-      <c r="X89" s="88"/>
+      <c r="T89" s="97">
+        <v>3</v>
+      </c>
+      <c r="U89" s="97">
+        <v>3</v>
+      </c>
+      <c r="V89" s="97">
+        <v>3</v>
+      </c>
+      <c r="W89" s="97">
+        <v>3</v>
+      </c>
+      <c r="X89" s="87"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -6078,19 +6051,19 @@
       <c r="S90" s="19">
         <v>3</v>
       </c>
-      <c r="T90" s="86">
-        <v>3</v>
-      </c>
-      <c r="U90" s="86">
-        <v>3</v>
-      </c>
-      <c r="V90" s="86">
-        <v>3</v>
-      </c>
-      <c r="W90" s="86">
-        <v>3</v>
-      </c>
-      <c r="X90" s="88"/>
+      <c r="T90" s="97">
+        <v>3</v>
+      </c>
+      <c r="U90" s="97">
+        <v>3</v>
+      </c>
+      <c r="V90" s="97">
+        <v>3</v>
+      </c>
+      <c r="W90" s="97">
+        <v>3</v>
+      </c>
+      <c r="X90" s="87"/>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -6126,13 +6099,13 @@
       <c r="Q91" s="19"/>
       <c r="R91" s="19"/>
       <c r="S91" s="19"/>
-      <c r="T91" s="86">
-        <v>2</v>
-      </c>
-      <c r="U91" s="86"/>
-      <c r="V91" s="86"/>
-      <c r="W91" s="86"/>
-      <c r="X91" s="88"/>
+      <c r="T91" s="97">
+        <v>2</v>
+      </c>
+      <c r="U91" s="97"/>
+      <c r="V91" s="97"/>
+      <c r="W91" s="97"/>
+      <c r="X91" s="87"/>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -6168,13 +6141,13 @@
       <c r="Q92" s="19"/>
       <c r="R92" s="19"/>
       <c r="S92" s="19"/>
-      <c r="T92" s="86">
-        <v>1</v>
-      </c>
-      <c r="U92" s="86"/>
-      <c r="V92" s="86"/>
-      <c r="W92" s="86"/>
-      <c r="X92" s="88"/>
+      <c r="T92" s="97">
+        <v>1</v>
+      </c>
+      <c r="U92" s="97"/>
+      <c r="V92" s="97"/>
+      <c r="W92" s="97"/>
+      <c r="X92" s="87"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -6234,25 +6207,25 @@
       <c r="S93" s="19">
         <v>3</v>
       </c>
-      <c r="T93" s="86">
-        <v>3</v>
-      </c>
-      <c r="U93" s="86">
-        <v>3</v>
-      </c>
-      <c r="V93" s="86">
-        <v>3</v>
-      </c>
-      <c r="W93" s="86">
-        <v>3</v>
-      </c>
-      <c r="X93" s="88"/>
+      <c r="T93" s="97">
+        <v>3</v>
+      </c>
+      <c r="U93" s="97">
+        <v>3</v>
+      </c>
+      <c r="V93" s="97">
+        <v>3</v>
+      </c>
+      <c r="W93" s="97">
+        <v>3</v>
+      </c>
+      <c r="X93" s="87"/>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>87</v>
       </c>
-      <c r="B94" s="91" t="s">
+      <c r="B94" s="90" t="s">
         <v>150</v>
       </c>
       <c r="C94" s="26">
@@ -6280,13 +6253,13 @@
       </c>
       <c r="R94" s="19"/>
       <c r="S94" s="19"/>
-      <c r="T94" s="86"/>
-      <c r="U94" s="86">
-        <v>1</v>
-      </c>
-      <c r="V94" s="86"/>
-      <c r="W94" s="86"/>
-      <c r="X94" s="88"/>
+      <c r="T94" s="97"/>
+      <c r="U94" s="97">
+        <v>1</v>
+      </c>
+      <c r="V94" s="97"/>
+      <c r="W94" s="97"/>
+      <c r="X94" s="87"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -6346,11 +6319,11 @@
       <c r="S95" s="19">
         <v>2</v>
       </c>
-      <c r="T95" s="86"/>
-      <c r="U95" s="86"/>
-      <c r="V95" s="86"/>
-      <c r="W95" s="86"/>
-      <c r="X95" s="88"/>
+      <c r="T95" s="97"/>
+      <c r="U95" s="97"/>
+      <c r="V95" s="97"/>
+      <c r="W95" s="97"/>
+      <c r="X95" s="87"/>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -6386,11 +6359,11 @@
       <c r="Q96" s="19"/>
       <c r="R96" s="19"/>
       <c r="S96" s="19"/>
-      <c r="T96" s="86"/>
-      <c r="U96" s="86"/>
-      <c r="V96" s="86"/>
-      <c r="W96" s="86"/>
-      <c r="X96" s="88"/>
+      <c r="T96" s="97"/>
+      <c r="U96" s="97"/>
+      <c r="V96" s="97"/>
+      <c r="W96" s="97"/>
+      <c r="X96" s="87"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97">
@@ -6426,11 +6399,11 @@
       <c r="Q97" s="19"/>
       <c r="R97" s="19"/>
       <c r="S97" s="19"/>
-      <c r="T97" s="86"/>
-      <c r="U97" s="86"/>
-      <c r="V97" s="86"/>
-      <c r="W97" s="86"/>
-      <c r="X97" s="88"/>
+      <c r="T97" s="97"/>
+      <c r="U97" s="97"/>
+      <c r="V97" s="97"/>
+      <c r="W97" s="97"/>
+      <c r="X97" s="87"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -6474,19 +6447,19 @@
       <c r="S98" s="19">
         <v>6</v>
       </c>
-      <c r="T98" s="86">
-        <v>6</v>
-      </c>
-      <c r="U98" s="86">
-        <v>6</v>
-      </c>
-      <c r="V98" s="86">
-        <v>6</v>
-      </c>
-      <c r="W98" s="86">
-        <v>6</v>
-      </c>
-      <c r="X98" s="88"/>
+      <c r="T98" s="97">
+        <v>6</v>
+      </c>
+      <c r="U98" s="97">
+        <v>6</v>
+      </c>
+      <c r="V98" s="97">
+        <v>6</v>
+      </c>
+      <c r="W98" s="97">
+        <v>6</v>
+      </c>
+      <c r="X98" s="87"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B99" s="11" t="s">
@@ -6584,7 +6557,7 @@
       <c r="W100" s="22">
         <v>4</v>
       </c>
-      <c r="X100" s="88"/>
+      <c r="X100" s="87"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -6644,19 +6617,19 @@
       <c r="S101" s="19">
         <v>45</v>
       </c>
-      <c r="T101" s="19">
+      <c r="T101" s="97">
         <v>50</v>
       </c>
-      <c r="U101" s="19">
+      <c r="U101" s="97">
         <v>50</v>
       </c>
-      <c r="V101" s="19">
+      <c r="V101" s="97">
         <v>50</v>
       </c>
-      <c r="W101" s="19">
+      <c r="W101" s="97">
         <v>50</v>
       </c>
-      <c r="X101" s="88"/>
+      <c r="X101" s="87"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -6728,7 +6701,7 @@
       <c r="W102" s="22">
         <v>8</v>
       </c>
-      <c r="X102" s="88"/>
+      <c r="X102" s="87"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
@@ -6826,7 +6799,7 @@
       <c r="W104" s="22">
         <v>18</v>
       </c>
-      <c r="X104" s="88"/>
+      <c r="X104" s="87"/>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105">
@@ -6898,7 +6871,7 @@
       <c r="W105" s="22">
         <v>17</v>
       </c>
-      <c r="X105" s="88"/>
+      <c r="X105" s="87"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -6950,24 +6923,24 @@
       </c>
       <c r="V106" s="22"/>
       <c r="W106" s="22"/>
-      <c r="X106" s="88"/>
+      <c r="X106" s="87"/>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>98</v>
       </c>
-      <c r="B107" s="91" t="s">
+      <c r="B107" s="90" t="s">
         <v>159</v>
       </c>
       <c r="C107" s="13">
         <v>8</v>
       </c>
-      <c r="D107" s="92">
-        <v>4</v>
-      </c>
-      <c r="E107" s="92"/>
-      <c r="F107" s="92"/>
-      <c r="G107" s="92"/>
+      <c r="D107" s="91">
+        <v>4</v>
+      </c>
+      <c r="E107" s="91"/>
+      <c r="F107" s="91"/>
+      <c r="G107" s="91"/>
       <c r="H107" s="38">
         <v>4</v>
       </c>
@@ -7004,7 +6977,7 @@
       <c r="W107" s="22">
         <v>4</v>
       </c>
-      <c r="X107" s="88"/>
+      <c r="X107" s="87"/>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108">
@@ -7044,7 +7017,7 @@
       <c r="U108" s="22"/>
       <c r="V108" s="22"/>
       <c r="W108" s="22"/>
-      <c r="X108" s="88"/>
+      <c r="X108" s="87"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109">
@@ -7100,7 +7073,7 @@
       <c r="W109" s="22">
         <v>6</v>
       </c>
-      <c r="X109" s="88"/>
+      <c r="X109" s="87"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -7172,7 +7145,7 @@
       <c r="W110" s="22">
         <v>39</v>
       </c>
-      <c r="X110" s="88"/>
+      <c r="X110" s="87"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -7244,7 +7217,7 @@
       <c r="W111" s="22">
         <v>6</v>
       </c>
-      <c r="X111" s="88"/>
+      <c r="X111" s="87"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -7316,7 +7289,7 @@
       <c r="W112" s="22">
         <v>3</v>
       </c>
-      <c r="X112" s="88"/>
+      <c r="X112" s="87"/>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
@@ -7414,7 +7387,7 @@
       <c r="W114" s="22">
         <v>13</v>
       </c>
-      <c r="X114" s="88"/>
+      <c r="X114" s="87"/>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115">
@@ -7454,7 +7427,7 @@
       <c r="U115" s="22"/>
       <c r="V115" s="22"/>
       <c r="W115" s="22"/>
-      <c r="X115" s="88"/>
+      <c r="X115" s="87"/>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116">
@@ -7526,7 +7499,7 @@
       <c r="W116" s="22">
         <v>3</v>
       </c>
-      <c r="X116" s="88"/>
+      <c r="X116" s="87"/>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117">
@@ -7598,7 +7571,7 @@
       <c r="W117" s="22">
         <v>3</v>
       </c>
-      <c r="X117" s="88"/>
+      <c r="X117" s="87"/>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118">
@@ -7670,7 +7643,7 @@
       <c r="W118" s="22">
         <v>3</v>
       </c>
-      <c r="X118" s="88"/>
+      <c r="X118" s="87"/>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -7726,13 +7699,13 @@
       <c r="U119" s="22"/>
       <c r="V119" s="22"/>
       <c r="W119" s="22"/>
-      <c r="X119" s="88"/>
+      <c r="X119" s="87"/>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>110</v>
       </c>
-      <c r="B120" s="91" t="s">
+      <c r="B120" s="90" t="s">
         <v>158</v>
       </c>
       <c r="C120" s="60">
@@ -7786,13 +7759,13 @@
       <c r="U120" s="22"/>
       <c r="V120" s="22"/>
       <c r="W120" s="22"/>
-      <c r="X120" s="88"/>
+      <c r="X120" s="87"/>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>111</v>
       </c>
-      <c r="B121" s="89" t="s">
+      <c r="B121" s="88" t="s">
         <v>160</v>
       </c>
       <c r="C121" s="60">
@@ -7858,13 +7831,13 @@
       <c r="W121" s="22">
         <v>35</v>
       </c>
-      <c r="X121" s="88"/>
+      <c r="X121" s="87"/>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>112</v>
       </c>
-      <c r="B122" s="89" t="s">
+      <c r="B122" s="88" t="s">
         <v>161</v>
       </c>
       <c r="C122" s="60">
@@ -7930,7 +7903,7 @@
       <c r="W122" s="22">
         <v>4</v>
       </c>
-      <c r="X122" s="88"/>
+      <c r="X122" s="87"/>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -7970,7 +7943,7 @@
       <c r="U123" s="22"/>
       <c r="V123" s="22"/>
       <c r="W123" s="22"/>
-      <c r="X123" s="88"/>
+      <c r="X123" s="87"/>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -8042,7 +8015,7 @@
       <c r="W124" s="22">
         <v>66</v>
       </c>
-      <c r="X124" s="88"/>
+      <c r="X124" s="87"/>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -8114,7 +8087,7 @@
       <c r="W125" s="22">
         <v>3</v>
       </c>
-      <c r="X125" s="88"/>
+      <c r="X125" s="87"/>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -8170,7 +8143,7 @@
       <c r="U126" s="71"/>
       <c r="V126" s="71"/>
       <c r="W126" s="71"/>
-      <c r="X126" s="88"/>
+      <c r="X126" s="87"/>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -8218,7 +8191,7 @@
       <c r="W127" s="71">
         <v>10</v>
       </c>
-      <c r="X127" s="88"/>
+      <c r="X127" s="87"/>
     </row>
     <row r="128" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
@@ -8304,19 +8277,19 @@
       <c r="S129" s="19">
         <v>9</v>
       </c>
-      <c r="T129" s="19">
+      <c r="T129" s="97">
         <v>9</v>
       </c>
-      <c r="U129" s="19">
+      <c r="U129" s="97">
         <v>9</v>
       </c>
-      <c r="V129" s="19">
+      <c r="V129" s="97">
         <v>9</v>
       </c>
-      <c r="W129" s="19">
+      <c r="W129" s="97">
         <v>9</v>
       </c>
-      <c r="X129" s="88"/>
+      <c r="X129" s="87"/>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -8352,11 +8325,11 @@
       <c r="Q130" s="19"/>
       <c r="R130" s="19"/>
       <c r="S130" s="19"/>
-      <c r="T130" s="22"/>
-      <c r="U130" s="22"/>
-      <c r="V130" s="22"/>
-      <c r="W130" s="22"/>
-      <c r="X130" s="88"/>
+      <c r="T130" s="97"/>
+      <c r="U130" s="97"/>
+      <c r="V130" s="97"/>
+      <c r="W130" s="97"/>
+      <c r="X130" s="87"/>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131">
@@ -8392,11 +8365,11 @@
       <c r="Q131" s="19"/>
       <c r="R131" s="19"/>
       <c r="S131" s="19"/>
-      <c r="T131" s="22"/>
-      <c r="U131" s="22"/>
-      <c r="V131" s="22"/>
-      <c r="W131" s="22"/>
-      <c r="X131" s="88"/>
+      <c r="T131" s="97"/>
+      <c r="U131" s="97"/>
+      <c r="V131" s="97"/>
+      <c r="W131" s="97"/>
+      <c r="X131" s="87"/>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -8456,19 +8429,19 @@
       <c r="S132" s="19">
         <v>64</v>
       </c>
-      <c r="T132" s="22">
+      <c r="T132" s="97">
         <v>72</v>
       </c>
-      <c r="U132" s="22">
+      <c r="U132" s="97">
         <v>72</v>
       </c>
-      <c r="V132" s="22">
+      <c r="V132" s="97">
         <v>72</v>
       </c>
-      <c r="W132" s="22">
+      <c r="W132" s="97">
         <v>72</v>
       </c>
-      <c r="X132" s="88"/>
+      <c r="X132" s="87"/>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -8528,19 +8501,19 @@
       <c r="S133" s="19">
         <v>3</v>
       </c>
-      <c r="T133" s="22">
-        <v>3</v>
-      </c>
-      <c r="U133" s="22">
-        <v>3</v>
-      </c>
-      <c r="V133" s="22">
-        <v>3</v>
-      </c>
-      <c r="W133" s="22">
-        <v>3</v>
-      </c>
-      <c r="X133" s="88"/>
+      <c r="T133" s="97">
+        <v>3</v>
+      </c>
+      <c r="U133" s="97">
+        <v>3</v>
+      </c>
+      <c r="V133" s="97">
+        <v>3</v>
+      </c>
+      <c r="W133" s="97">
+        <v>3</v>
+      </c>
+      <c r="X133" s="87"/>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -8592,11 +8565,11 @@
       <c r="Q134" s="19"/>
       <c r="R134" s="19"/>
       <c r="S134" s="19"/>
-      <c r="T134" s="19"/>
-      <c r="U134" s="19"/>
-      <c r="V134" s="19"/>
-      <c r="W134" s="19"/>
-      <c r="X134" s="88"/>
+      <c r="T134" s="97"/>
+      <c r="U134" s="97"/>
+      <c r="V134" s="97"/>
+      <c r="W134" s="97"/>
+      <c r="X134" s="87"/>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -8668,7 +8641,7 @@
       <c r="W135" s="22">
         <v>3</v>
       </c>
-      <c r="X135" s="88"/>
+      <c r="X135" s="87"/>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B136" s="12" t="s">
@@ -8695,13 +8668,13 @@
       <c r="U136" s="9"/>
       <c r="V136" s="9"/>
       <c r="W136" s="44"/>
-      <c r="X136" s="88"/>
+      <c r="X136" s="87"/>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>125</v>
       </c>
-      <c r="B137" s="96" t="s">
+      <c r="B137" s="93" t="s">
         <v>167</v>
       </c>
       <c r="C137" s="4">
@@ -8759,13 +8732,13 @@
       <c r="U137" s="22"/>
       <c r="V137" s="22"/>
       <c r="W137" s="22"/>
-      <c r="X137" s="88"/>
+      <c r="X137" s="87"/>
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>126</v>
       </c>
-      <c r="B138" s="96" t="s">
+      <c r="B138" s="93" t="s">
         <v>168</v>
       </c>
       <c r="C138" s="79">
@@ -8799,7 +8772,7 @@
       <c r="W138" s="22">
         <v>8</v>
       </c>
-      <c r="X138" s="88"/>
+      <c r="X138" s="87"/>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B139" s="14" t="s">
